--- a/Task-1.xlsx
+++ b/Task-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_ALL_TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C9D71D2-F8A8-48A7-9C22-93A8D41C6871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30444EE-502B-44C4-A72F-351ED16B7F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1766,6 +1766,42 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1778,12 +1814,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1805,45 +1835,57 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1853,47 +1895,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1907,29 +1931,41 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1956,42 +1992,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3605,21 +3605,21 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="206"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
       <c r="F3" s="109"/>
-      <c r="G3" s="198" t="s">
+      <c r="G3" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="200"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="212"/>
       <c r="L3" s="95"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -3629,21 +3629,21 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="207"/>
-      <c r="B4" s="208"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="200"/>
       <c r="F4" s="86"/>
-      <c r="G4" s="210" t="s">
+      <c r="G4" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="211"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="210" t="s">
+      <c r="H4" s="202"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="212"/>
+      <c r="K4" s="203"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -3656,15 +3656,15 @@
       <c r="B5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="86"/>
-      <c r="G5" s="213" t="s">
+      <c r="G5" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="214"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="213" t="s">
+      <c r="H5" s="205"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="215"/>
+      <c r="K5" s="206"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -3682,15 +3682,15 @@
       <c r="D6" s="96"/>
       <c r="E6" s="111"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="201" t="s">
+      <c r="G6" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="202"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="201" t="s">
+      <c r="H6" s="214"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="213" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="203"/>
+      <c r="K6" s="215"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -3708,15 +3708,15 @@
       <c r="D7" s="110"/>
       <c r="E7" s="111"/>
       <c r="F7" s="86"/>
-      <c r="G7" s="201" t="s">
+      <c r="G7" s="213" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="214"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="203"/>
+      <c r="K7" s="215"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -3732,15 +3732,15 @@
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="86"/>
-      <c r="G8" s="201" t="s">
+      <c r="G8" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="202"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="201" t="s">
+      <c r="H8" s="214"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="203"/>
+      <c r="K8" s="215"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -3751,15 +3751,15 @@
     </row>
     <row r="9" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="86"/>
-      <c r="G9" s="195" t="s">
+      <c r="G9" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="196"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="195" t="s">
+      <c r="H9" s="208"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="207" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="197"/>
+      <c r="K9" s="209"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -4772,11 +4772,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G3:K3"/>
@@ -4786,6 +4781,11 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4797,7 +4797,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4820,7 +4820,10 @@
       <c r="A2" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="59" cm="1">
+        <f t="array" ref="B2">SUMPRODUCT(--(LEN(A4:F10)=2))</f>
+        <v>24</v>
+      </c>
       <c r="C2" s="59"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -5141,8 +5144,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P440"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9299,8 +9302,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9659,16 +9662,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="142"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9682,7 +9685,7 @@
       <c r="A3" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="143" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="144"/>
@@ -9696,57 +9699,57 @@
       <c r="A4" s="115">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="159"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="148"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="113">
         <v>2</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="159"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="148"/>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="114">
         <v>3</v>
       </c>
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="155" t="s">
         <v>119</v>
       </c>
       <c r="C8" s="144"/>
       <c r="D8" s="144"/>
-      <c r="E8" s="143" t="s">
+      <c r="E8" s="155" t="s">
         <v>120</v>
       </c>
       <c r="F8" s="144"/>
@@ -9754,49 +9757,49 @@
       <c r="H8" s="145"/>
     </row>
     <row r="9" spans="1:9" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="141"/>
-      <c r="B9" s="149" t="s">
+      <c r="A9" s="153"/>
+      <c r="B9" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="146">
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="156">
         <f xml:space="preserve"> (  LEN(B4)    -LEN(SUBSTITUTE(B4,B9,"")) )  /  (LEN(B9))</f>
         <v>3</v>
       </c>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="148"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="158"/>
     </row>
     <row r="10" spans="1:9" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="141"/>
-      <c r="B10" s="152" t="s">
+      <c r="A10" s="153"/>
+      <c r="B10" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="146">
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="156">
         <f t="shared" ref="E10:E11" si="0" xml:space="preserve"> (  LEN(B5)    -LEN(SUBSTITUTE(B5,B10,"")) )  /  (LEN(B10))</f>
         <v>2</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="148"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="158"/>
     </row>
     <row r="11" spans="1:9" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="142"/>
-      <c r="B11" s="152" t="s">
+      <c r="A11" s="154"/>
+      <c r="B11" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="146">
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="156">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="158"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9806,11 +9809,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:H9"/>
@@ -9820,6 +9818,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9842,30 +9845,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="171"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="174"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="123"/>
@@ -9881,18 +9884,18 @@
       <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="176"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="121"/>
       <c r="M4"/>
     </row>
@@ -9900,16 +9903,16 @@
       <c r="A5" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="155" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="144"/>
       <c r="D5" s="145"/>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="155" t="s">
         <v>138</v>
       </c>
       <c r="F5" s="145"/>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="155" t="s">
         <v>137</v>
       </c>
       <c r="H5" s="144"/>
@@ -9920,132 +9923,132 @@
       <c r="A6" s="120">
         <v>1</v>
       </c>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="180" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="181"/>
-      <c r="G6" s="177" t="str" cm="1">
+      <c r="F6" s="175"/>
+      <c r="G6" s="163" t="str" cm="1">
         <f t="array" ref="G6" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E6, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B6,LEN(B6)-(SEARCH(",",B6)))&amp;  " " &amp;LEFT(B6,SEARCH(",",B6)-1) )</f>
         <v>Mrs. Bharti Gupta</v>
       </c>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="165"/>
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="122">
         <v>2</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="176" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="163" t="s">
+      <c r="C7" s="179"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="177" t="str" cm="1">
+      <c r="F7" s="177"/>
+      <c r="G7" s="163" t="str" cm="1">
         <f t="array" ref="G7" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E7, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B7,LEN(B7)-(SEARCH(",",B7)))&amp;  " " &amp;LEFT(B7,SEARCH(",",B7)-1) )</f>
         <v>Mr. Chandan Negi</v>
       </c>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="119">
         <v>3</v>
       </c>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="176" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="163" t="s">
+      <c r="C8" s="179"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="176" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="165"/>
-      <c r="G8" s="177" t="str" cm="1">
+      <c r="F8" s="177"/>
+      <c r="G8" s="163" t="str" cm="1">
         <f t="array" ref="G8" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E8, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B8,LEN(B8)-(SEARCH(",",B8)))&amp;  " " &amp;LEFT(B8,SEARCH(",",B8)-1) )</f>
         <v>Mrs. Neha Malhotra</v>
       </c>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="119">
         <v>4</v>
       </c>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="163" t="s">
+      <c r="C9" s="179"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="176" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="165"/>
-      <c r="G9" s="177" t="str" cm="1">
+      <c r="F9" s="177"/>
+      <c r="G9" s="163" t="str" cm="1">
         <f t="array" ref="G9" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E9, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B9,LEN(B9)-(SEARCH(",",B9)))&amp;  " " &amp;LEFT(B9,SEARCH(",",B9)-1) )</f>
         <v>Mrs. Daljeet Kaur</v>
       </c>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="119">
         <v>5</v>
       </c>
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="176" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="163" t="s">
+      <c r="C10" s="179"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="165"/>
-      <c r="G10" s="177" t="str" cm="1">
+      <c r="F10" s="177"/>
+      <c r="G10" s="163" t="str" cm="1">
         <f t="array" ref="G10" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E10, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B10,LEN(B10)-(SEARCH(",",B10)))&amp;  " " &amp;LEFT(B10,SEARCH(",",B10)-1) )</f>
         <v>Mr. Virit Shukla</v>
       </c>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="179"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165"/>
       <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="119">
         <v>6</v>
       </c>
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="180" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="166" t="s">
+      <c r="C11" s="182"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="167"/>
-      <c r="G11" s="177" t="str" cm="1">
+      <c r="F11" s="181"/>
+      <c r="G11" s="163" t="str" cm="1">
         <f t="array" ref="G11" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E11, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B11,LEN(B11)-(SEARCH(",",B11)))&amp;  " " &amp;LEFT(B11,SEARCH(",",B11)-1) )</f>
         <v>Mr. Priyank Agarwal</v>
       </c>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="165"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
@@ -10054,6 +10057,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
@@ -10070,13 +10080,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10087,124 +10090,124 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="185" t="s">
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="186"/>
+      <c r="H4" s="194"/>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="127">
         <v>1</v>
       </c>
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="188" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="146" t="str">
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="156" t="str">
         <f>RIGHT(B5,LEN(B5)-(SEARCH("check",B5)+7))</f>
         <v>12345</v>
       </c>
-      <c r="H5" s="148"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="125">
         <v>2</v>
       </c>
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="146" t="str">
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="156" t="str">
         <f t="shared" ref="G6:G8" si="0">RIGHT(B6,LEN(B6)-(SEARCH("check",B6)+7))</f>
         <v>123456</v>
       </c>
-      <c r="H6" s="148"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="125">
         <v>3</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="146" t="str">
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="156" t="str">
         <f t="shared" si="0"/>
         <v>000789</v>
       </c>
-      <c r="H7" s="148"/>
+      <c r="H7" s="158"/>
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="125">
         <v>4</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="146" t="str">
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="156" t="str">
         <f t="shared" si="0"/>
         <v>123456</v>
       </c>
-      <c r="H8" s="148"/>
+      <c r="H8" s="158"/>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10212,11 +10215,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="G4:H4"/>
@@ -10224,6 +10222,11 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Task-1.xlsx
+++ b/Task-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_ALL_TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30444EE-502B-44C4-A72F-351ED16B7F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6C6881-CF43-4D6F-AF7D-62F77813FF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Q1'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Q4'!$A$1:$C$443</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Q4'!$O$1:$Q$440</definedName>
+    <definedName name="ch">'Q4'!$O:$Q</definedName>
+    <definedName name="id">'Q4'!$O$1:$P$440</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
@@ -1766,6 +1768,45 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1778,12 +1819,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1802,38 +1837,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1874,25 +1894,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,17 +1933,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1965,33 +1994,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2458,7 +2460,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3549,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA9157C-17E4-4539-9F73-7788D71432E9}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E36"/>
+    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3605,21 +3607,21 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="206"/>
       <c r="F3" s="109"/>
-      <c r="G3" s="210" t="s">
+      <c r="G3" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="212"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="200"/>
       <c r="L3" s="95"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -3629,21 +3631,21 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="198"/>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="200"/>
+      <c r="A4" s="207"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="209"/>
       <c r="F4" s="86"/>
-      <c r="G4" s="201" t="s">
+      <c r="G4" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="202"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="201" t="s">
+      <c r="H4" s="211"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="210" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="203"/>
+      <c r="K4" s="212"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -3656,15 +3658,15 @@
       <c r="B5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="86"/>
-      <c r="G5" s="204" t="s">
+      <c r="G5" s="213" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="205"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="204" t="s">
+      <c r="H5" s="214"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="213" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="206"/>
+      <c r="K5" s="215"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -3682,15 +3684,15 @@
       <c r="D6" s="96"/>
       <c r="E6" s="111"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="213" t="s">
+      <c r="G6" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="214"/>
-      <c r="I6" s="215"/>
-      <c r="J6" s="213" t="s">
+      <c r="H6" s="202"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="215"/>
+      <c r="K6" s="203"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -3708,15 +3710,15 @@
       <c r="D7" s="110"/>
       <c r="E7" s="111"/>
       <c r="F7" s="86"/>
-      <c r="G7" s="213" t="s">
+      <c r="G7" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="214"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="213" t="s">
+      <c r="H7" s="202"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="201" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="215"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -3732,15 +3734,15 @@
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="86"/>
-      <c r="G8" s="213" t="s">
+      <c r="G8" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="214"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="213" t="s">
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="215"/>
+      <c r="K8" s="203"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -3751,15 +3753,15 @@
     </row>
     <row r="9" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="86"/>
-      <c r="G9" s="207" t="s">
+      <c r="G9" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="208"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="207" t="s">
+      <c r="H9" s="196"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="195" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="209"/>
+      <c r="K9" s="197"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -4772,6 +4774,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G3:K3"/>
@@ -4781,11 +4788,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5142,10 +5144,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P440"/>
+  <dimension ref="A1:R440"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5159,7 +5161,7 @@
     <col min="16" max="16" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>115</v>
       </c>
@@ -5184,8 +5186,14 @@
       <c r="P1" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="134" t="s">
         <v>97</v>
       </c>
@@ -5212,16 +5220,27 @@
       <c r="P2" s="16">
         <v>40825</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q2" t="str">
+        <f>TEXT(P2,"mm")</f>
+        <v>10</v>
+      </c>
+      <c r="R2" t="str">
+        <f>TEXT(P2,"yyyy")</f>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
       <c r="B3" s="66">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="136"/>
+      <c r="D3" s="136">
+        <f>COUNTIFS(O1:O440,C3,Q1:Q440,B3)</f>
+        <v>4</v>
+      </c>
       <c r="E3" s="137"/>
       <c r="F3" s="137"/>
       <c r="G3" s="137"/>
@@ -5236,8 +5255,16 @@
       <c r="P3" s="16">
         <v>40826</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q66" si="0">TEXT(P3,"mm")</f>
+        <v>10</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R66" si="1">TEXT(P3,"yyyy")</f>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
@@ -5252,8 +5279,16 @@
       <c r="P4" s="16">
         <v>40827</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>111</v>
       </c>
@@ -5278,8 +5313,16 @@
       <c r="P5" s="16">
         <v>40828</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="134" t="s">
         <v>97</v>
       </c>
@@ -5309,8 +5352,16 @@
       <c r="P6" s="16">
         <v>40829</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="135"/>
       <c r="B7" s="66">
         <v>2011</v>
@@ -5318,7 +5369,10 @@
       <c r="C7" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="136"/>
+      <c r="D7" s="136">
+        <f>COUNTIFS(O1:O440,C7,R1:R440,B7)</f>
+        <v>11</v>
+      </c>
       <c r="E7" s="137"/>
       <c r="F7" s="137"/>
       <c r="G7" s="137"/>
@@ -5337,8 +5391,16 @@
       <c r="P7" s="16">
         <v>40830</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -5355,8 +5417,22 @@
       <c r="P8" s="16">
         <v>40831</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
       <c r="M9">
         <v>6</v>
       </c>
@@ -5366,8 +5442,26 @@
       <c r="P9" s="16">
         <v>40832</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>COUNTIFS(O1:O440,C7,R1:R440,B7)</f>
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
       <c r="M10">
         <v>7</v>
       </c>
@@ -5377,9 +5471,21 @@
       <c r="P10" s="16">
         <v>40833</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="46"/>
+      <c r="F11">
+        <f>COUNTIFS(O1:O440,C3,Q1:Q440,B3)</f>
+        <v>4</v>
+      </c>
       <c r="M11">
         <v>8</v>
       </c>
@@ -5389,8 +5495,24 @@
       <c r="P11" s="16">
         <v>40834</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f>DCOUNT(ch,Q1,B2:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>DCOUNTA(ch,Q1,I9:J10)</f>
+        <v>7</v>
+      </c>
       <c r="M12">
         <v>9</v>
       </c>
@@ -5400,8 +5522,24 @@
       <c r="P12" s="16">
         <v>40835</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>DCOUNTA(ch,Q1,I9:J10)</f>
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <f>DCOUNTA(ch,O1,B2:C3)</f>
+        <v>0</v>
+      </c>
       <c r="M13">
         <v>10</v>
       </c>
@@ -5411,8 +5549,16 @@
       <c r="P13" s="16">
         <v>40836</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M14">
         <v>11</v>
       </c>
@@ -5422,8 +5568,16 @@
       <c r="P14" s="16">
         <v>40837</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M15">
         <v>12</v>
       </c>
@@ -5433,3296 +5587,6592 @@
       <c r="P15" s="16">
         <v>40838</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O16" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="16">
         <v>40839</v>
       </c>
-    </row>
-    <row r="17" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q16" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="17" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P17" s="16">
         <v>40840</v>
       </c>
-    </row>
-    <row r="18" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q17" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="18" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O18" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P18" s="16">
         <v>40841</v>
       </c>
-    </row>
-    <row r="19" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q18" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O19" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P19" s="16">
         <v>40842</v>
       </c>
-    </row>
-    <row r="20" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q19" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="20" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O20" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="16">
         <v>40843</v>
       </c>
-    </row>
-    <row r="21" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q20" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="21" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O21" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="16">
         <v>40844</v>
       </c>
-    </row>
-    <row r="22" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q21" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="22" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O22" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P22" s="16">
         <v>40845</v>
       </c>
-    </row>
-    <row r="23" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q22" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="23" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P23" s="16">
         <v>40846</v>
       </c>
-    </row>
-    <row r="24" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q23" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P24" s="16">
         <v>40847</v>
       </c>
-    </row>
-    <row r="25" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q24" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="25" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="16">
         <v>40848</v>
       </c>
-    </row>
-    <row r="26" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q25" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="26" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O26" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P26" s="16">
         <v>40849</v>
       </c>
-    </row>
-    <row r="27" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q26" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O27" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P27" s="16">
         <v>40850</v>
       </c>
-    </row>
-    <row r="28" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q27" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="28" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O28" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P28" s="16">
         <v>40851</v>
       </c>
-    </row>
-    <row r="29" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q28" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="29" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O29" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P29" s="16">
         <v>40852</v>
       </c>
-    </row>
-    <row r="30" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q29" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="30" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O30" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P30" s="16">
         <v>40853</v>
       </c>
-    </row>
-    <row r="31" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q30" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O31" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P31" s="16">
         <v>40854</v>
       </c>
-    </row>
-    <row r="32" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q31" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="32" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O32" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P32" s="16">
         <v>40855</v>
       </c>
-    </row>
-    <row r="33" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q32" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="33" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P33" s="16">
         <v>40856</v>
       </c>
-    </row>
-    <row r="34" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q33" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="34" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O34" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P34" s="16">
         <v>40857</v>
       </c>
-    </row>
-    <row r="35" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q34" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="35" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O35" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P35" s="16">
         <v>40858</v>
       </c>
-    </row>
-    <row r="36" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q35" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="36" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O36" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P36" s="16">
         <v>40859</v>
       </c>
-    </row>
-    <row r="37" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q36" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="37" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O37" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P37" s="16">
         <v>40860</v>
       </c>
-    </row>
-    <row r="38" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q37" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="38" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O38" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P38" s="16">
         <v>40861</v>
       </c>
-    </row>
-    <row r="39" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q38" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O39" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P39" s="16">
         <v>40862</v>
       </c>
-    </row>
-    <row r="40" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q39" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P40" s="16">
         <v>40863</v>
       </c>
-    </row>
-    <row r="41" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q40" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="41" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P41" s="16">
         <v>40864</v>
       </c>
-    </row>
-    <row r="42" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q41" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="42" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O42" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P42" s="16">
         <v>40865</v>
       </c>
-    </row>
-    <row r="43" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q42" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="43" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O43" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P43" s="16">
         <v>40866</v>
       </c>
-    </row>
-    <row r="44" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q43" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="44" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O44" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P44" s="16">
         <v>40867</v>
       </c>
-    </row>
-    <row r="45" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q44" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="45" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O45" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P45" s="16">
         <v>40868</v>
       </c>
-    </row>
-    <row r="46" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q45" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="46" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O46" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P46" s="16">
         <v>40869</v>
       </c>
-    </row>
-    <row r="47" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q46" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="47" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O47" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P47" s="16">
         <v>40870</v>
       </c>
-    </row>
-    <row r="48" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q47" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="48" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O48" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P48" s="16">
         <v>40871</v>
       </c>
-    </row>
-    <row r="49" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q48" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="49" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P49" s="16">
         <v>40872</v>
       </c>
-    </row>
-    <row r="50" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q49" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="50" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O50" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P50" s="16">
         <v>40873</v>
       </c>
-    </row>
-    <row r="51" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q50" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O51" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P51" s="16">
         <v>40874</v>
       </c>
-    </row>
-    <row r="52" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q51" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O52" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P52" s="16">
         <v>40875</v>
       </c>
-    </row>
-    <row r="53" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q52" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O53" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P53" s="16">
         <v>40876</v>
       </c>
-    </row>
-    <row r="54" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q53" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O54" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P54" s="16">
         <v>40877</v>
       </c>
-    </row>
-    <row r="55" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q54" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="55" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O55" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P55" s="16">
         <v>40878</v>
       </c>
-    </row>
-    <row r="56" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q55" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="56" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O56" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P56" s="16">
         <v>40879</v>
       </c>
-    </row>
-    <row r="57" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q56" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="57" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P57" s="16">
         <v>40880</v>
       </c>
-    </row>
-    <row r="58" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q57" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="58" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O58" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P58" s="16">
         <v>40881</v>
       </c>
-    </row>
-    <row r="59" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q58" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="59" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O59" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P59" s="16">
         <v>40882</v>
       </c>
-    </row>
-    <row r="60" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q59" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="60" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O60" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P60" s="16">
         <v>40883</v>
       </c>
-    </row>
-    <row r="61" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q60" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="61" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O61" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P61" s="16">
         <v>40884</v>
       </c>
-    </row>
-    <row r="62" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q61" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="62" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O62" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P62" s="16">
         <v>40885</v>
       </c>
-    </row>
-    <row r="63" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q62" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="63" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O63" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P63" s="16">
         <v>40886</v>
       </c>
-    </row>
-    <row r="64" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q63" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="64" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O64" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P64" s="16">
         <v>40887</v>
       </c>
-    </row>
-    <row r="65" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q64" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="65" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P65" s="16">
         <v>40888</v>
       </c>
-    </row>
-    <row r="66" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q65" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="66" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O66" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P66" s="16">
         <v>40889</v>
       </c>
-    </row>
-    <row r="67" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q66" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="67" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O67" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P67" s="16">
         <v>40890</v>
       </c>
-    </row>
-    <row r="68" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67:Q130" si="2">TEXT(P67,"mm")</f>
+        <v>12</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" ref="R67:R130" si="3">TEXT(P67,"yyyy")</f>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="68" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O68" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P68" s="16">
         <v>40891</v>
       </c>
-    </row>
-    <row r="69" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q68" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="69" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O69" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P69" s="16">
         <v>40892</v>
       </c>
-    </row>
-    <row r="70" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q69" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="70" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O70" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P70" s="16">
         <v>40893</v>
       </c>
-    </row>
-    <row r="71" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q70" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="71" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O71" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P71" s="16">
         <v>40894</v>
       </c>
-    </row>
-    <row r="72" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q71" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R71" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="72" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O72" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P72" s="16">
         <v>40895</v>
       </c>
-    </row>
-    <row r="73" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q72" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R72" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="73" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P73" s="16">
         <v>40896</v>
       </c>
-    </row>
-    <row r="74" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q73" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R73" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="74" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O74" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P74" s="16">
         <v>40897</v>
       </c>
-    </row>
-    <row r="75" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q74" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R74" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="75" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O75" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P75" s="16">
         <v>40898</v>
       </c>
-    </row>
-    <row r="76" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q75" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R75" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="76" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O76" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P76" s="16">
         <v>40899</v>
       </c>
-    </row>
-    <row r="77" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q76" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R76" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="77" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O77" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P77" s="16">
         <v>40900</v>
       </c>
-    </row>
-    <row r="78" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q77" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R77" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="78" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O78" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P78" s="16">
         <v>40901</v>
       </c>
-    </row>
-    <row r="79" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q78" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R78" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="79" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O79" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P79" s="16">
         <v>40902</v>
       </c>
-    </row>
-    <row r="80" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q79" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R79" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="80" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O80" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P80" s="16">
         <v>40903</v>
       </c>
-    </row>
-    <row r="81" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q80" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R80" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="81" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P81" s="16">
         <v>40904</v>
       </c>
-    </row>
-    <row r="82" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q81" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R81" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="82" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O82" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P82" s="16">
         <v>40905</v>
       </c>
-    </row>
-    <row r="83" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q82" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R82" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="83" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O83" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P83" s="16">
         <v>40906</v>
       </c>
-    </row>
-    <row r="84" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q83" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R83" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="84" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O84" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P84" s="16">
         <v>40907</v>
       </c>
-    </row>
-    <row r="85" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q84" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R84" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="85" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O85" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P85" s="16">
         <v>40908</v>
       </c>
-    </row>
-    <row r="86" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q85" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R85" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="86" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O86" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P86" s="16">
         <v>40909</v>
       </c>
-    </row>
-    <row r="87" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q86" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R86" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="87" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O87" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P87" s="16">
         <v>40910</v>
       </c>
-    </row>
-    <row r="88" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q87" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R87" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="88" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O88" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P88" s="16">
         <v>40911</v>
       </c>
-    </row>
-    <row r="89" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q88" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R88" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="89" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P89" s="16">
         <v>40912</v>
       </c>
-    </row>
-    <row r="90" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q89" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R89" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="90" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O90" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P90" s="16">
         <v>40913</v>
       </c>
-    </row>
-    <row r="91" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q90" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R90" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="91" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O91" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P91" s="16">
         <v>40914</v>
       </c>
-    </row>
-    <row r="92" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q91" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R91" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="92" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O92" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P92" s="16">
         <v>40915</v>
       </c>
-    </row>
-    <row r="93" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q92" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R92" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="93" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O93" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P93" s="16">
         <v>40916</v>
       </c>
-    </row>
-    <row r="94" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q93" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R93" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="94" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O94" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P94" s="16">
         <v>40917</v>
       </c>
-    </row>
-    <row r="95" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q94" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R94" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="95" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O95" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P95" s="16">
         <v>40918</v>
       </c>
-    </row>
-    <row r="96" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q95" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R95" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="96" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O96" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P96" s="16">
         <v>40919</v>
       </c>
-    </row>
-    <row r="97" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q96" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R96" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="97" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P97" s="16">
         <v>40920</v>
       </c>
-    </row>
-    <row r="98" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q97" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R97" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="98" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O98" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P98" s="16">
         <v>40921</v>
       </c>
-    </row>
-    <row r="99" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q98" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R98" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="99" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O99" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P99" s="16">
         <v>40922</v>
       </c>
-    </row>
-    <row r="100" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q99" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R99" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="100" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O100" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="16">
         <v>40923</v>
       </c>
-    </row>
-    <row r="101" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q100" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R100" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="101" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O101" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P101" s="16">
         <v>40924</v>
       </c>
-    </row>
-    <row r="102" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q101" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R101" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="102" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O102" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P102" s="16">
         <v>40925</v>
       </c>
-    </row>
-    <row r="103" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q102" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R102" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="103" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O103" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P103" s="16">
         <v>40926</v>
       </c>
-    </row>
-    <row r="104" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q103" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R103" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="104" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O104" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P104" s="16">
         <v>40927</v>
       </c>
-    </row>
-    <row r="105" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q104" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R104" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="105" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P105" s="16">
         <v>40928</v>
       </c>
-    </row>
-    <row r="106" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q105" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R105" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="106" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O106" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P106" s="16">
         <v>40929</v>
       </c>
-    </row>
-    <row r="107" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q106" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R106" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="107" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O107" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P107" s="16">
         <v>40930</v>
       </c>
-    </row>
-    <row r="108" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q107" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R107" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="108" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O108" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P108" s="16">
         <v>40931</v>
       </c>
-    </row>
-    <row r="109" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q108" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R108" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="109" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O109" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P109" s="16">
         <v>40932</v>
       </c>
-    </row>
-    <row r="110" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q109" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R109" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="110" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O110" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P110" s="16">
         <v>40933</v>
       </c>
-    </row>
-    <row r="111" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q110" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R110" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="111" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O111" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P111" s="16">
         <v>40934</v>
       </c>
-    </row>
-    <row r="112" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q111" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R111" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="112" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O112" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P112" s="16">
         <v>40935</v>
       </c>
-    </row>
-    <row r="113" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q112" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R112" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="113" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P113" s="16">
         <v>40936</v>
       </c>
-    </row>
-    <row r="114" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q113" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R113" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="114" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O114" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P114" s="16">
         <v>40937</v>
       </c>
-    </row>
-    <row r="115" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q114" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R114" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="115" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O115" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P115" s="16">
         <v>40938</v>
       </c>
-    </row>
-    <row r="116" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q115" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R115" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="116" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O116" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P116" s="16">
         <v>40939</v>
       </c>
-    </row>
-    <row r="117" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q116" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="R116" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="117" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O117" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P117" s="16">
         <v>40940</v>
       </c>
-    </row>
-    <row r="118" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q117" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R117" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="118" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O118" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P118" s="16">
         <v>40941</v>
       </c>
-    </row>
-    <row r="119" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q118" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R118" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="119" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O119" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P119" s="16">
         <v>40942</v>
       </c>
-    </row>
-    <row r="120" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q119" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R119" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="120" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O120" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P120" s="16">
         <v>40943</v>
       </c>
-    </row>
-    <row r="121" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q120" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R120" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="121" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P121" s="16">
         <v>40944</v>
       </c>
-    </row>
-    <row r="122" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q121" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R121" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="122" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O122" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P122" s="16">
         <v>40945</v>
       </c>
-    </row>
-    <row r="123" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q122" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R122" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="123" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O123" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P123" s="16">
         <v>40946</v>
       </c>
-    </row>
-    <row r="124" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q123" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R123" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="124" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O124" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P124" s="16">
         <v>40947</v>
       </c>
-    </row>
-    <row r="125" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q124" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R124" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="125" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O125" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P125" s="16">
         <v>40948</v>
       </c>
-    </row>
-    <row r="126" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q125" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R125" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="126" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O126" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P126" s="16">
         <v>40949</v>
       </c>
-    </row>
-    <row r="127" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q126" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R126" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="127" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O127" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P127" s="16">
         <v>40950</v>
       </c>
-    </row>
-    <row r="128" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q127" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R127" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="128" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O128" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P128" s="16">
         <v>40951</v>
       </c>
-    </row>
-    <row r="129" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q128" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R128" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="129" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O129" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P129" s="16">
         <v>40952</v>
       </c>
-    </row>
-    <row r="130" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q129" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R129" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="130" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O130" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P130" s="16">
         <v>40953</v>
       </c>
-    </row>
-    <row r="131" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q130" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="R130" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="131" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O131" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P131" s="16">
         <v>40954</v>
       </c>
-    </row>
-    <row r="132" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q131" t="str">
+        <f t="shared" ref="Q131:Q194" si="4">TEXT(P131,"mm")</f>
+        <v>02</v>
+      </c>
+      <c r="R131" t="str">
+        <f t="shared" ref="R131:R194" si="5">TEXT(P131,"yyyy")</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="132" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O132" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P132" s="16">
         <v>40955</v>
       </c>
-    </row>
-    <row r="133" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q132" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R132" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="133" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O133" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P133" s="16">
         <v>40956</v>
       </c>
-    </row>
-    <row r="134" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q133" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R133" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="134" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O134" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P134" s="16">
         <v>40957</v>
       </c>
-    </row>
-    <row r="135" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q134" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R134" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="135" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O135" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P135" s="16">
         <v>40958</v>
       </c>
-    </row>
-    <row r="136" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q135" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R135" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="136" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O136" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P136" s="16">
         <v>40959</v>
       </c>
-    </row>
-    <row r="137" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q136" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R136" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="137" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O137" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P137" s="16">
         <v>40960</v>
       </c>
-    </row>
-    <row r="138" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q137" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R137" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="138" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O138" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P138" s="16">
         <v>40961</v>
       </c>
-    </row>
-    <row r="139" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q138" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R138" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="139" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O139" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P139" s="16">
         <v>40962</v>
       </c>
-    </row>
-    <row r="140" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q139" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R139" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="140" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O140" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P140" s="16">
         <v>40963</v>
       </c>
-    </row>
-    <row r="141" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q140" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R140" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="141" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O141" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P141" s="16">
         <v>40964</v>
       </c>
-    </row>
-    <row r="142" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q141" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R141" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="142" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O142" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P142" s="16">
         <v>40965</v>
       </c>
-    </row>
-    <row r="143" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q142" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R142" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="143" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O143" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P143" s="16">
         <v>40966</v>
       </c>
-    </row>
-    <row r="144" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q143" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R143" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="144" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O144" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P144" s="16">
         <v>40967</v>
       </c>
-    </row>
-    <row r="145" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q144" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R144" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="145" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O145" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P145" s="16">
         <v>40968</v>
       </c>
-    </row>
-    <row r="146" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q145" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="R145" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="146" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O146" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P146" s="16">
         <v>40969</v>
       </c>
-    </row>
-    <row r="147" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q146" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R146" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="147" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O147" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P147" s="16">
         <v>40970</v>
       </c>
-    </row>
-    <row r="148" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q147" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R147" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="148" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O148" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P148" s="16">
         <v>40971</v>
       </c>
-    </row>
-    <row r="149" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q148" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R148" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="149" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O149" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P149" s="16">
         <v>40972</v>
       </c>
-    </row>
-    <row r="150" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q149" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R149" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="150" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O150" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P150" s="16">
         <v>40973</v>
       </c>
-    </row>
-    <row r="151" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q150" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R150" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="151" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O151" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P151" s="16">
         <v>40974</v>
       </c>
-    </row>
-    <row r="152" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q151" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R151" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="152" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O152" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P152" s="16">
         <v>40975</v>
       </c>
-    </row>
-    <row r="153" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q152" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R152" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="153" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O153" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P153" s="16">
         <v>40976</v>
       </c>
-    </row>
-    <row r="154" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q153" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R153" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="154" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O154" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P154" s="16">
         <v>40977</v>
       </c>
-    </row>
-    <row r="155" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q154" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R154" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="155" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O155" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P155" s="16">
         <v>40978</v>
       </c>
-    </row>
-    <row r="156" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q155" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R155" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="156" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O156" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P156" s="16">
         <v>40979</v>
       </c>
-    </row>
-    <row r="157" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q156" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R156" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="157" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O157" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P157" s="16">
         <v>40980</v>
       </c>
-    </row>
-    <row r="158" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q157" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R157" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="158" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O158" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P158" s="16">
         <v>40981</v>
       </c>
-    </row>
-    <row r="159" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q158" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R158" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="159" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O159" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P159" s="16">
         <v>40982</v>
       </c>
-    </row>
-    <row r="160" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q159" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R159" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="160" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O160" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P160" s="16">
         <v>40983</v>
       </c>
-    </row>
-    <row r="161" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q160" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R160" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="161" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O161" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P161" s="16">
         <v>40984</v>
       </c>
-    </row>
-    <row r="162" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q161" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R161" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="162" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O162" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P162" s="16">
         <v>40985</v>
       </c>
-    </row>
-    <row r="163" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q162" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R162" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="163" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O163" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P163" s="16">
         <v>40986</v>
       </c>
-    </row>
-    <row r="164" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q163" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R163" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="164" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O164" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P164" s="16">
         <v>40987</v>
       </c>
-    </row>
-    <row r="165" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q164" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R164" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="165" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O165" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P165" s="16">
         <v>40988</v>
       </c>
-    </row>
-    <row r="166" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q165" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R165" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="166" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O166" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P166" s="16">
         <v>40989</v>
       </c>
-    </row>
-    <row r="167" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q166" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R166" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="167" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O167" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P167" s="16">
         <v>40990</v>
       </c>
-    </row>
-    <row r="168" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q167" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R167" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="168" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O168" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P168" s="16">
         <v>40991</v>
       </c>
-    </row>
-    <row r="169" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q168" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R168" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="169" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O169" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P169" s="16">
         <v>40992</v>
       </c>
-    </row>
-    <row r="170" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q169" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R169" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="170" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O170" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P170" s="16">
         <v>40993</v>
       </c>
-    </row>
-    <row r="171" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q170" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R170" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="171" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O171" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P171" s="16">
         <v>40994</v>
       </c>
-    </row>
-    <row r="172" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q171" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R171" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="172" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O172" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P172" s="16">
         <v>40995</v>
       </c>
-    </row>
-    <row r="173" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q172" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R172" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="173" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O173" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P173" s="16">
         <v>40996</v>
       </c>
-    </row>
-    <row r="174" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q173" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R173" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="174" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O174" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P174" s="16">
         <v>40997</v>
       </c>
-    </row>
-    <row r="175" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q174" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R174" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="175" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O175" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P175" s="16">
         <v>40998</v>
       </c>
-    </row>
-    <row r="176" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q175" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R175" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="176" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O176" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P176" s="16">
         <v>40999</v>
       </c>
-    </row>
-    <row r="177" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q176" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
+      <c r="R176" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="177" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O177" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P177" s="16">
         <v>41000</v>
       </c>
-    </row>
-    <row r="178" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q177" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R177" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="178" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O178" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P178" s="16">
         <v>41001</v>
       </c>
-    </row>
-    <row r="179" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q178" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R178" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="179" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O179" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P179" s="16">
         <v>41002</v>
       </c>
-    </row>
-    <row r="180" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q179" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R179" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="180" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O180" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P180" s="16">
         <v>41003</v>
       </c>
-    </row>
-    <row r="181" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q180" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R180" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="181" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O181" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P181" s="16">
         <v>41004</v>
       </c>
-    </row>
-    <row r="182" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q181" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R181" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="182" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O182" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P182" s="16">
         <v>41005</v>
       </c>
-    </row>
-    <row r="183" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q182" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R182" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="183" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O183" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P183" s="16">
         <v>41006</v>
       </c>
-    </row>
-    <row r="184" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q183" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R183" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="184" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O184" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P184" s="16">
         <v>41007</v>
       </c>
-    </row>
-    <row r="185" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q184" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R184" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="185" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O185" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P185" s="16">
         <v>41008</v>
       </c>
-    </row>
-    <row r="186" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q185" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R185" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="186" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O186" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P186" s="16">
         <v>41009</v>
       </c>
-    </row>
-    <row r="187" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q186" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R186" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="187" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O187" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P187" s="16">
         <v>41010</v>
       </c>
-    </row>
-    <row r="188" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q187" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R187" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="188" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O188" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P188" s="16">
         <v>41011</v>
       </c>
-    </row>
-    <row r="189" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q188" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R188" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="189" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O189" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P189" s="16">
         <v>41012</v>
       </c>
-    </row>
-    <row r="190" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q189" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R189" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="190" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O190" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P190" s="16">
         <v>41013</v>
       </c>
-    </row>
-    <row r="191" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q190" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R190" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="191" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O191" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P191" s="16">
         <v>41014</v>
       </c>
-    </row>
-    <row r="192" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q191" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R191" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="192" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O192" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P192" s="16">
         <v>41015</v>
       </c>
-    </row>
-    <row r="193" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q192" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R192" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="193" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O193" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P193" s="16">
         <v>41016</v>
       </c>
-    </row>
-    <row r="194" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q193" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R193" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="194" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O194" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P194" s="16">
         <v>41017</v>
       </c>
-    </row>
-    <row r="195" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q194" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="R194" t="str">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="195" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O195" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P195" s="16">
         <v>41018</v>
       </c>
-    </row>
-    <row r="196" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q195" t="str">
+        <f t="shared" ref="Q195:Q258" si="6">TEXT(P195,"mm")</f>
+        <v>04</v>
+      </c>
+      <c r="R195" t="str">
+        <f t="shared" ref="R195:R258" si="7">TEXT(P195,"yyyy")</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="196" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O196" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P196" s="16">
         <v>41019</v>
       </c>
-    </row>
-    <row r="197" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q196" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R196" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="197" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O197" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P197" s="16">
         <v>41020</v>
       </c>
-    </row>
-    <row r="198" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q197" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R197" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="198" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O198" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P198" s="16">
         <v>41021</v>
       </c>
-    </row>
-    <row r="199" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q198" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R198" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="199" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O199" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P199" s="16">
         <v>41022</v>
       </c>
-    </row>
-    <row r="200" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q199" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R199" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="200" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O200" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P200" s="16">
         <v>41023</v>
       </c>
-    </row>
-    <row r="201" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q200" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R200" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="201" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O201" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P201" s="16">
         <v>41024</v>
       </c>
-    </row>
-    <row r="202" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q201" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R201" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="202" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O202" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P202" s="16">
         <v>41025</v>
       </c>
-    </row>
-    <row r="203" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q202" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R202" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="203" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O203" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P203" s="16">
         <v>41026</v>
       </c>
-    </row>
-    <row r="204" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q203" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R203" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="204" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O204" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P204" s="16">
         <v>41027</v>
       </c>
-    </row>
-    <row r="205" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q204" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R204" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="205" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O205" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P205" s="16">
         <v>41028</v>
       </c>
-    </row>
-    <row r="206" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q205" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R205" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="206" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O206" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P206" s="16">
         <v>41029</v>
       </c>
-    </row>
-    <row r="207" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q206" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="R206" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="207" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O207" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P207" s="16">
         <v>41030</v>
       </c>
-    </row>
-    <row r="208" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q207" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R207" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="208" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O208" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P208" s="16">
         <v>41031</v>
       </c>
-    </row>
-    <row r="209" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q208" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R208" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="209" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O209" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P209" s="16">
         <v>41032</v>
       </c>
-    </row>
-    <row r="210" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q209" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R209" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="210" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O210" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P210" s="16">
         <v>41033</v>
       </c>
-    </row>
-    <row r="211" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q210" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R210" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="211" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O211" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P211" s="16">
         <v>41034</v>
       </c>
-    </row>
-    <row r="212" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q211" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R211" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="212" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O212" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P212" s="16">
         <v>41035</v>
       </c>
-    </row>
-    <row r="213" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q212" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R212" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="213" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O213" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P213" s="16">
         <v>41036</v>
       </c>
-    </row>
-    <row r="214" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q213" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R213" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="214" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O214" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P214" s="16">
         <v>41037</v>
       </c>
-    </row>
-    <row r="215" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q214" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R214" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="215" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O215" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P215" s="16">
         <v>41038</v>
       </c>
-    </row>
-    <row r="216" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q215" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R215" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="216" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O216" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P216" s="16">
         <v>41039</v>
       </c>
-    </row>
-    <row r="217" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q216" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R216" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="217" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O217" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P217" s="16">
         <v>41040</v>
       </c>
-    </row>
-    <row r="218" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q217" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R217" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="218" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O218" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P218" s="16">
         <v>41041</v>
       </c>
-    </row>
-    <row r="219" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q218" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R218" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="219" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O219" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P219" s="16">
         <v>41042</v>
       </c>
-    </row>
-    <row r="220" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q219" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R219" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="220" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O220" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P220" s="16">
         <v>41043</v>
       </c>
-    </row>
-    <row r="221" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q220" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R220" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="221" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O221" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P221" s="16">
         <v>41044</v>
       </c>
-    </row>
-    <row r="222" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q221" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R221" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="222" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O222" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P222" s="16">
         <v>41045</v>
       </c>
-    </row>
-    <row r="223" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q222" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R222" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="223" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O223" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P223" s="16">
         <v>41046</v>
       </c>
-    </row>
-    <row r="224" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q223" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R223" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="224" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O224" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P224" s="16">
         <v>41047</v>
       </c>
-    </row>
-    <row r="225" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q224" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R224" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="225" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O225" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P225" s="16">
         <v>41048</v>
       </c>
-    </row>
-    <row r="226" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q225" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R225" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="226" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O226" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P226" s="16">
         <v>41049</v>
       </c>
-    </row>
-    <row r="227" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q226" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R226" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="227" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O227" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P227" s="16">
         <v>41050</v>
       </c>
-    </row>
-    <row r="228" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q227" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R227" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="228" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O228" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P228" s="16">
         <v>41051</v>
       </c>
-    </row>
-    <row r="229" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q228" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R228" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="229" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O229" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P229" s="16">
         <v>41052</v>
       </c>
-    </row>
-    <row r="230" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q229" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R229" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="230" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O230" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P230" s="16">
         <v>41053</v>
       </c>
-    </row>
-    <row r="231" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q230" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R230" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="231" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O231" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P231" s="16">
         <v>41054</v>
       </c>
-    </row>
-    <row r="232" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q231" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R231" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="232" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O232" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P232" s="16">
         <v>41055</v>
       </c>
-    </row>
-    <row r="233" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q232" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R232" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="233" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O233" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P233" s="16">
         <v>41056</v>
       </c>
-    </row>
-    <row r="234" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q233" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R233" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="234" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O234" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P234" s="16">
         <v>41057</v>
       </c>
-    </row>
-    <row r="235" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q234" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R234" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="235" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O235" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P235" s="16">
         <v>41058</v>
       </c>
-    </row>
-    <row r="236" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q235" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R235" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="236" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O236" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P236" s="16">
         <v>41059</v>
       </c>
-    </row>
-    <row r="237" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q236" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R236" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="237" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O237" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P237" s="16">
         <v>41060</v>
       </c>
-    </row>
-    <row r="238" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q237" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+      <c r="R237" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="238" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O238" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P238" s="16">
         <v>41061</v>
       </c>
-    </row>
-    <row r="239" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q238" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R238" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="239" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O239" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P239" s="16">
         <v>41062</v>
       </c>
-    </row>
-    <row r="240" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q239" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R239" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="240" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O240" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P240" s="16">
         <v>41063</v>
       </c>
-    </row>
-    <row r="241" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q240" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R240" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="241" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O241" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P241" s="16">
         <v>41064</v>
       </c>
-    </row>
-    <row r="242" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q241" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R241" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="242" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O242" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P242" s="16">
         <v>41065</v>
       </c>
-    </row>
-    <row r="243" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q242" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R242" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="243" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O243" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P243" s="16">
         <v>41066</v>
       </c>
-    </row>
-    <row r="244" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q243" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R243" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="244" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O244" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P244" s="16">
         <v>41067</v>
       </c>
-    </row>
-    <row r="245" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q244" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R244" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="245" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O245" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P245" s="16">
         <v>41068</v>
       </c>
-    </row>
-    <row r="246" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q245" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R245" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="246" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O246" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P246" s="16">
         <v>41069</v>
       </c>
-    </row>
-    <row r="247" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q246" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R246" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="247" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O247" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P247" s="16">
         <v>41070</v>
       </c>
-    </row>
-    <row r="248" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q247" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R247" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="248" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O248" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P248" s="16">
         <v>41071</v>
       </c>
-    </row>
-    <row r="249" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q248" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R248" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="249" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O249" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P249" s="16">
         <v>41072</v>
       </c>
-    </row>
-    <row r="250" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q249" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R249" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="250" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O250" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P250" s="16">
         <v>41073</v>
       </c>
-    </row>
-    <row r="251" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q250" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R250" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="251" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O251" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P251" s="16">
         <v>41074</v>
       </c>
-    </row>
-    <row r="252" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q251" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R251" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="252" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O252" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P252" s="16">
         <v>41075</v>
       </c>
-    </row>
-    <row r="253" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q252" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R252" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="253" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O253" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P253" s="16">
         <v>41076</v>
       </c>
-    </row>
-    <row r="254" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q253" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R253" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="254" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O254" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P254" s="16">
         <v>41077</v>
       </c>
-    </row>
-    <row r="255" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q254" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R254" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="255" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O255" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P255" s="16">
         <v>41078</v>
       </c>
-    </row>
-    <row r="256" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q255" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R255" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="256" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O256" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P256" s="16">
         <v>41079</v>
       </c>
-    </row>
-    <row r="257" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q256" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R256" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="257" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O257" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P257" s="16">
         <v>41080</v>
       </c>
-    </row>
-    <row r="258" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q257" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R257" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="258" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O258" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P258" s="16">
         <v>41081</v>
       </c>
-    </row>
-    <row r="259" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q258" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="R258" t="str">
+        <f t="shared" si="7"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="259" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O259" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P259" s="16">
         <v>41082</v>
       </c>
-    </row>
-    <row r="260" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q259" t="str">
+        <f t="shared" ref="Q259:Q322" si="8">TEXT(P259,"mm")</f>
+        <v>06</v>
+      </c>
+      <c r="R259" t="str">
+        <f t="shared" ref="R259:R322" si="9">TEXT(P259,"yyyy")</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="260" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O260" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P260" s="16">
         <v>41083</v>
       </c>
-    </row>
-    <row r="261" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q260" t="str">
+        <f t="shared" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="R260" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="261" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O261" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P261" s="16">
         <v>41084</v>
       </c>
-    </row>
-    <row r="262" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q261" t="str">
+        <f t="shared" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="R261" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="262" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O262" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P262" s="16">
         <v>41085</v>
       </c>
-    </row>
-    <row r="263" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q262" t="str">
+        <f t="shared" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="R262" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="263" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O263" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P263" s="16">
         <v>41086</v>
       </c>
-    </row>
-    <row r="264" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q263" t="str">
+        <f t="shared" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="R263" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="264" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O264" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P264" s="16">
         <v>41087</v>
       </c>
-    </row>
-    <row r="265" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q264" t="str">
+        <f t="shared" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="R264" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="265" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O265" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P265" s="16">
         <v>41088</v>
       </c>
-    </row>
-    <row r="266" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q265" t="str">
+        <f t="shared" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="R265" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="266" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O266" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P266" s="16">
         <v>41089</v>
       </c>
-    </row>
-    <row r="267" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q266" t="str">
+        <f t="shared" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="R266" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="267" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O267" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P267" s="16">
         <v>41090</v>
       </c>
-    </row>
-    <row r="268" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q267" t="str">
+        <f t="shared" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="R267" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="268" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O268" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P268" s="16">
         <v>41091</v>
       </c>
-    </row>
-    <row r="269" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q268" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R268" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="269" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O269" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P269" s="16">
         <v>41092</v>
       </c>
-    </row>
-    <row r="270" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q269" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R269" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="270" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O270" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P270" s="16">
         <v>41093</v>
       </c>
-    </row>
-    <row r="271" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q270" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R270" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="271" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O271" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P271" s="16">
         <v>41094</v>
       </c>
-    </row>
-    <row r="272" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q271" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R271" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="272" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O272" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P272" s="16">
         <v>41095</v>
       </c>
-    </row>
-    <row r="273" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q272" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R272" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="273" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O273" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P273" s="16">
         <v>41096</v>
       </c>
-    </row>
-    <row r="274" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q273" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R273" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="274" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O274" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P274" s="16">
         <v>41097</v>
       </c>
-    </row>
-    <row r="275" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q274" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R274" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="275" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O275" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P275" s="16">
         <v>41098</v>
       </c>
-    </row>
-    <row r="276" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q275" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R275" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="276" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O276" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P276" s="16">
         <v>41099</v>
       </c>
-    </row>
-    <row r="277" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q276" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R276" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="277" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O277" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P277" s="16">
         <v>41100</v>
       </c>
-    </row>
-    <row r="278" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q277" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R277" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="278" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O278" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P278" s="16">
         <v>41101</v>
       </c>
-    </row>
-    <row r="279" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q278" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R278" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="279" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O279" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P279" s="16">
         <v>41102</v>
       </c>
-    </row>
-    <row r="280" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q279" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R279" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="280" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O280" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P280" s="16">
         <v>41103</v>
       </c>
-    </row>
-    <row r="281" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q280" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R280" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="281" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O281" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P281" s="16">
         <v>41104</v>
       </c>
-    </row>
-    <row r="282" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q281" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R281" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="282" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O282" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P282" s="16">
         <v>41105</v>
       </c>
-    </row>
-    <row r="283" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q282" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R282" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="283" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O283" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P283" s="16">
         <v>41106</v>
       </c>
-    </row>
-    <row r="284" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q283" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R283" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="284" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O284" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P284" s="16">
         <v>41107</v>
       </c>
-    </row>
-    <row r="285" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q284" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R284" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="285" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O285" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P285" s="16">
         <v>41108</v>
       </c>
-    </row>
-    <row r="286" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q285" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R285" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="286" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O286" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P286" s="16">
         <v>41109</v>
       </c>
-    </row>
-    <row r="287" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q286" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R286" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="287" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O287" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P287" s="16">
         <v>41110</v>
       </c>
-    </row>
-    <row r="288" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q287" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R287" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="288" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O288" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P288" s="16">
         <v>41111</v>
       </c>
-    </row>
-    <row r="289" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q288" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R288" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="289" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O289" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P289" s="16">
         <v>41112</v>
       </c>
-    </row>
-    <row r="290" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q289" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R289" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="290" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O290" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P290" s="16">
         <v>41113</v>
       </c>
-    </row>
-    <row r="291" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q290" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R290" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="291" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O291" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P291" s="16">
         <v>41114</v>
       </c>
-    </row>
-    <row r="292" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q291" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R291" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="292" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O292" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P292" s="16">
         <v>41115</v>
       </c>
-    </row>
-    <row r="293" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q292" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R292" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="293" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O293" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P293" s="16">
         <v>41116</v>
       </c>
-    </row>
-    <row r="294" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q293" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R293" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="294" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O294" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P294" s="16">
         <v>41117</v>
       </c>
-    </row>
-    <row r="295" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q294" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R294" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="295" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O295" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P295" s="16">
         <v>41118</v>
       </c>
-    </row>
-    <row r="296" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q295" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R295" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="296" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O296" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P296" s="16">
         <v>41119</v>
       </c>
-    </row>
-    <row r="297" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q296" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R296" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="297" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O297" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P297" s="16">
         <v>41120</v>
       </c>
-    </row>
-    <row r="298" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q297" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R297" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="298" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O298" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P298" s="16">
         <v>41121</v>
       </c>
-    </row>
-    <row r="299" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q298" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="R298" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="299" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O299" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P299" s="16">
         <v>41122</v>
       </c>
-    </row>
-    <row r="300" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q299" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R299" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="300" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O300" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P300" s="16">
         <v>41123</v>
       </c>
-    </row>
-    <row r="301" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q300" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R300" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="301" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O301" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P301" s="16">
         <v>41124</v>
       </c>
-    </row>
-    <row r="302" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q301" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R301" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="302" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O302" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P302" s="16">
         <v>41125</v>
       </c>
-    </row>
-    <row r="303" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q302" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R302" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="303" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O303" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P303" s="16">
         <v>41126</v>
       </c>
-    </row>
-    <row r="304" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q303" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R303" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="304" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O304" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P304" s="16">
         <v>41127</v>
       </c>
-    </row>
-    <row r="305" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q304" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R304" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="305" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O305" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P305" s="16">
         <v>41128</v>
       </c>
-    </row>
-    <row r="306" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q305" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R305" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="306" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O306" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P306" s="16">
         <v>41129</v>
       </c>
-    </row>
-    <row r="307" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q306" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R306" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="307" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O307" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P307" s="16">
         <v>41130</v>
       </c>
-    </row>
-    <row r="308" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q307" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R307" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="308" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O308" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P308" s="16">
         <v>41131</v>
       </c>
-    </row>
-    <row r="309" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q308" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R308" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="309" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O309" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P309" s="16">
         <v>41132</v>
       </c>
-    </row>
-    <row r="310" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q309" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R309" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="310" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O310" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P310" s="16">
         <v>41133</v>
       </c>
-    </row>
-    <row r="311" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q310" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R310" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="311" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O311" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P311" s="16">
         <v>41134</v>
       </c>
-    </row>
-    <row r="312" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q311" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R311" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="312" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O312" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P312" s="16">
         <v>41135</v>
       </c>
-    </row>
-    <row r="313" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q312" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R312" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="313" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O313" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P313" s="16">
         <v>41136</v>
       </c>
-    </row>
-    <row r="314" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q313" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R313" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="314" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O314" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P314" s="16">
         <v>41137</v>
       </c>
-    </row>
-    <row r="315" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q314" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R314" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="315" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O315" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P315" s="16">
         <v>41138</v>
       </c>
-    </row>
-    <row r="316" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q315" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R315" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="316" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O316" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P316" s="16">
         <v>41139</v>
       </c>
-    </row>
-    <row r="317" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q316" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R316" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="317" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O317" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P317" s="16">
         <v>41140</v>
       </c>
-    </row>
-    <row r="318" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q317" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R317" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="318" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O318" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P318" s="16">
         <v>41141</v>
       </c>
-    </row>
-    <row r="319" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q318" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R318" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="319" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O319" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P319" s="16">
         <v>41142</v>
       </c>
-    </row>
-    <row r="320" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q319" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R319" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="320" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O320" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P320" s="16">
         <v>41143</v>
       </c>
-    </row>
-    <row r="321" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q320" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R320" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="321" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O321" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P321" s="16">
         <v>41144</v>
       </c>
-    </row>
-    <row r="322" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q321" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R321" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="322" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O322" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P322" s="16">
         <v>41145</v>
       </c>
-    </row>
-    <row r="323" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q322" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="R322" t="str">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="323" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O323" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P323" s="16">
         <v>41146</v>
       </c>
-    </row>
-    <row r="324" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q323" t="str">
+        <f t="shared" ref="Q323:Q386" si="10">TEXT(P323,"mm")</f>
+        <v>08</v>
+      </c>
+      <c r="R323" t="str">
+        <f t="shared" ref="R323:R386" si="11">TEXT(P323,"yyyy")</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="324" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O324" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P324" s="16">
         <v>41147</v>
       </c>
-    </row>
-    <row r="325" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q324" t="str">
+        <f t="shared" si="10"/>
+        <v>08</v>
+      </c>
+      <c r="R324" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="325" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O325" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P325" s="16">
         <v>41148</v>
       </c>
-    </row>
-    <row r="326" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q325" t="str">
+        <f t="shared" si="10"/>
+        <v>08</v>
+      </c>
+      <c r="R325" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="326" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O326" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P326" s="16">
         <v>41149</v>
       </c>
-    </row>
-    <row r="327" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q326" t="str">
+        <f t="shared" si="10"/>
+        <v>08</v>
+      </c>
+      <c r="R326" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="327" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O327" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P327" s="16">
         <v>41150</v>
       </c>
-    </row>
-    <row r="328" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q327" t="str">
+        <f t="shared" si="10"/>
+        <v>08</v>
+      </c>
+      <c r="R327" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="328" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O328" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P328" s="16">
         <v>41151</v>
       </c>
-    </row>
-    <row r="329" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q328" t="str">
+        <f t="shared" si="10"/>
+        <v>08</v>
+      </c>
+      <c r="R328" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="329" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O329" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P329" s="16">
         <v>41152</v>
       </c>
-    </row>
-    <row r="330" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q329" t="str">
+        <f t="shared" si="10"/>
+        <v>08</v>
+      </c>
+      <c r="R329" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="330" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O330" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P330" s="16">
         <v>41153</v>
       </c>
-    </row>
-    <row r="331" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q330" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R330" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="331" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O331" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P331" s="16">
         <v>41154</v>
       </c>
-    </row>
-    <row r="332" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q331" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R331" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="332" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O332" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P332" s="16">
         <v>41155</v>
       </c>
-    </row>
-    <row r="333" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q332" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R332" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="333" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O333" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P333" s="16">
         <v>41156</v>
       </c>
-    </row>
-    <row r="334" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q333" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R333" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="334" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O334" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P334" s="16">
         <v>41157</v>
       </c>
-    </row>
-    <row r="335" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q334" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R334" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="335" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O335" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P335" s="16">
         <v>41158</v>
       </c>
-    </row>
-    <row r="336" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q335" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R335" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="336" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O336" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P336" s="16">
         <v>41159</v>
       </c>
-    </row>
-    <row r="337" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q336" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R336" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="337" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O337" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P337" s="16">
         <v>41160</v>
       </c>
-    </row>
-    <row r="338" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q337" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R337" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="338" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O338" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P338" s="16">
         <v>41161</v>
       </c>
-    </row>
-    <row r="339" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q338" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R338" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="339" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O339" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P339" s="16">
         <v>41162</v>
       </c>
-    </row>
-    <row r="340" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q339" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R339" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="340" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O340" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P340" s="16">
         <v>41163</v>
       </c>
-    </row>
-    <row r="341" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q340" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R340" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="341" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O341" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P341" s="16">
         <v>41164</v>
       </c>
-    </row>
-    <row r="342" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q341" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R341" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="342" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O342" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P342" s="16">
         <v>41165</v>
       </c>
-    </row>
-    <row r="343" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q342" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R342" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="343" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O343" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P343" s="16">
         <v>41166</v>
       </c>
-    </row>
-    <row r="344" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q343" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R343" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="344" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O344" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P344" s="16">
         <v>41167</v>
       </c>
-    </row>
-    <row r="345" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q344" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R344" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="345" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O345" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P345" s="16">
         <v>41168</v>
       </c>
-    </row>
-    <row r="346" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q345" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R345" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="346" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O346" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P346" s="16">
         <v>41169</v>
       </c>
-    </row>
-    <row r="347" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q346" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R346" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="347" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O347" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P347" s="16">
         <v>41170</v>
       </c>
-    </row>
-    <row r="348" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q347" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R347" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="348" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O348" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P348" s="16">
         <v>41171</v>
       </c>
-    </row>
-    <row r="349" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q348" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R348" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="349" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O349" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P349" s="16">
         <v>41172</v>
       </c>
-    </row>
-    <row r="350" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q349" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R349" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="350" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O350" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P350" s="16">
         <v>41173</v>
       </c>
-    </row>
-    <row r="351" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q350" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R350" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="351" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O351" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P351" s="16">
         <v>41174</v>
       </c>
-    </row>
-    <row r="352" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q351" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R351" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="352" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O352" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P352" s="16">
         <v>41175</v>
       </c>
-    </row>
-    <row r="353" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q352" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R352" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="353" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O353" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P353" s="16">
         <v>41176</v>
       </c>
-    </row>
-    <row r="354" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q353" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R353" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="354" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O354" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P354" s="16">
         <v>41177</v>
       </c>
-    </row>
-    <row r="355" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q354" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R354" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="355" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O355" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P355" s="16">
         <v>41178</v>
       </c>
-    </row>
-    <row r="356" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q355" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R355" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="356" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O356" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P356" s="16">
         <v>41179</v>
       </c>
-    </row>
-    <row r="357" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q356" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R356" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="357" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O357" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P357" s="16">
         <v>41180</v>
       </c>
-    </row>
-    <row r="358" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q357" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R357" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="358" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O358" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P358" s="16">
         <v>41181</v>
       </c>
-    </row>
-    <row r="359" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q358" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R358" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="359" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O359" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P359" s="16">
         <v>41182</v>
       </c>
-    </row>
-    <row r="360" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q359" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="R359" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="360" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O360" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P360" s="16">
         <v>41183</v>
       </c>
-    </row>
-    <row r="361" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q360" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R360" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="361" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O361" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P361" s="16">
         <v>41184</v>
       </c>
-    </row>
-    <row r="362" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q361" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R361" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="362" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O362" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P362" s="16">
         <v>41185</v>
       </c>
-    </row>
-    <row r="363" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q362" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R362" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="363" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O363" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P363" s="16">
         <v>41186</v>
       </c>
-    </row>
-    <row r="364" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q363" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R363" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="364" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O364" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P364" s="16">
         <v>41187</v>
       </c>
-    </row>
-    <row r="365" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q364" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R364" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="365" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O365" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P365" s="16">
         <v>41188</v>
       </c>
-    </row>
-    <row r="366" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q365" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R365" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="366" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O366" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P366" s="16">
         <v>41189</v>
       </c>
-    </row>
-    <row r="367" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q366" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R366" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="367" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O367" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P367" s="16">
         <v>41190</v>
       </c>
-    </row>
-    <row r="368" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q367" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R367" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="368" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O368" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P368" s="16">
         <v>41191</v>
       </c>
-    </row>
-    <row r="369" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q368" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R368" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="369" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O369" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P369" s="16">
         <v>41192</v>
       </c>
-    </row>
-    <row r="370" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q369" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R369" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="370" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O370" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P370" s="16">
         <v>41193</v>
       </c>
-    </row>
-    <row r="371" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q370" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R370" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="371" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O371" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P371" s="16">
         <v>41194</v>
       </c>
-    </row>
-    <row r="372" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q371" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R371" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="372" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O372" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P372" s="16">
         <v>41195</v>
       </c>
-    </row>
-    <row r="373" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q372" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R372" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="373" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O373" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P373" s="16">
         <v>41196</v>
       </c>
-    </row>
-    <row r="374" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q373" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R373" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="374" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O374" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P374" s="16">
         <v>41197</v>
       </c>
-    </row>
-    <row r="375" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q374" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R374" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="375" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O375" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P375" s="16">
         <v>41198</v>
       </c>
-    </row>
-    <row r="376" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q375" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R375" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="376" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O376" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P376" s="16">
         <v>41199</v>
       </c>
-    </row>
-    <row r="377" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q376" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R376" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="377" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O377" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P377" s="16">
         <v>41200</v>
       </c>
-    </row>
-    <row r="378" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q377" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R377" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="378" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O378" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P378" s="16">
         <v>41201</v>
       </c>
-    </row>
-    <row r="379" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q378" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R378" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="379" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O379" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P379" s="16">
         <v>41202</v>
       </c>
-    </row>
-    <row r="380" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q379" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R379" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="380" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O380" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P380" s="16">
         <v>41203</v>
       </c>
-    </row>
-    <row r="381" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q380" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R380" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="381" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O381" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P381" s="16">
         <v>41204</v>
       </c>
-    </row>
-    <row r="382" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q381" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R381" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="382" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O382" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P382" s="16">
         <v>41205</v>
       </c>
-    </row>
-    <row r="383" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q382" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R382" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="383" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O383" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P383" s="16">
         <v>41206</v>
       </c>
-    </row>
-    <row r="384" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q383" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R383" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="384" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O384" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P384" s="16">
         <v>41207</v>
       </c>
-    </row>
-    <row r="385" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q384" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R384" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="385" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O385" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P385" s="16">
         <v>41208</v>
       </c>
-    </row>
-    <row r="386" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q385" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R385" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="386" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O386" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P386" s="16">
         <v>41209</v>
       </c>
-    </row>
-    <row r="387" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q386" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="R386" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="387" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O387" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P387" s="16">
         <v>41210</v>
       </c>
-    </row>
-    <row r="388" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q387" t="str">
+        <f t="shared" ref="Q387:Q440" si="12">TEXT(P387,"mm")</f>
+        <v>10</v>
+      </c>
+      <c r="R387" t="str">
+        <f t="shared" ref="R387:R440" si="13">TEXT(P387,"yyyy")</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="388" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O388" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P388" s="16">
         <v>41211</v>
       </c>
-    </row>
-    <row r="389" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q388" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R388" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="389" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O389" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P389" s="16">
         <v>41212</v>
       </c>
-    </row>
-    <row r="390" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q389" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R389" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="390" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O390" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P390" s="16">
         <v>41213</v>
       </c>
-    </row>
-    <row r="391" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q390" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R390" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="391" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O391" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P391" s="16">
         <v>41214</v>
       </c>
-    </row>
-    <row r="392" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q391" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R391" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="392" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O392" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P392" s="16">
         <v>41215</v>
       </c>
-    </row>
-    <row r="393" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q392" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R392" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="393" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O393" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P393" s="16">
         <v>41216</v>
       </c>
-    </row>
-    <row r="394" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q393" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R393" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="394" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O394" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P394" s="16">
         <v>41217</v>
       </c>
-    </row>
-    <row r="395" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q394" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R394" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="395" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O395" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P395" s="16">
         <v>41218</v>
       </c>
-    </row>
-    <row r="396" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q395" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R395" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="396" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O396" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P396" s="16">
         <v>41219</v>
       </c>
-    </row>
-    <row r="397" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q396" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R396" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="397" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O397" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P397" s="16">
         <v>41220</v>
       </c>
-    </row>
-    <row r="398" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q397" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R397" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="398" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O398" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P398" s="16">
         <v>41221</v>
       </c>
-    </row>
-    <row r="399" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q398" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R398" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="399" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O399" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P399" s="16">
         <v>41222</v>
       </c>
-    </row>
-    <row r="400" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q399" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R399" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="400" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O400" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P400" s="16">
         <v>41223</v>
       </c>
-    </row>
-    <row r="401" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q400" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R400" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="401" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O401" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P401" s="16">
         <v>41224</v>
       </c>
-    </row>
-    <row r="402" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q401" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R401" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="402" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O402" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P402" s="16">
         <v>41225</v>
       </c>
-    </row>
-    <row r="403" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q402" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R402" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="403" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O403" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P403" s="16">
         <v>41226</v>
       </c>
-    </row>
-    <row r="404" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q403" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R403" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="404" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O404" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P404" s="16">
         <v>41227</v>
       </c>
-    </row>
-    <row r="405" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q404" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R404" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="405" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O405" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P405" s="16">
         <v>41228</v>
       </c>
-    </row>
-    <row r="406" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q405" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R405" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="406" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O406" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P406" s="16">
         <v>41229</v>
       </c>
-    </row>
-    <row r="407" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q406" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R406" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="407" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O407" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P407" s="16">
         <v>41230</v>
       </c>
-    </row>
-    <row r="408" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q407" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R407" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="408" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O408" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P408" s="16">
         <v>41231</v>
       </c>
-    </row>
-    <row r="409" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q408" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R408" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="409" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O409" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P409" s="16">
         <v>41232</v>
       </c>
-    </row>
-    <row r="410" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q409" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R409" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="410" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O410" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P410" s="16">
         <v>41233</v>
       </c>
-    </row>
-    <row r="411" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q410" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R410" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="411" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O411" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P411" s="16">
         <v>41234</v>
       </c>
-    </row>
-    <row r="412" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q411" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R411" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="412" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O412" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P412" s="16">
         <v>41235</v>
       </c>
-    </row>
-    <row r="413" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q412" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R412" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="413" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O413" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P413" s="16">
         <v>41236</v>
       </c>
-    </row>
-    <row r="414" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q413" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R413" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="414" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O414" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P414" s="16">
         <v>41237</v>
       </c>
-    </row>
-    <row r="415" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q414" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R414" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="415" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O415" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P415" s="16">
         <v>41238</v>
       </c>
-    </row>
-    <row r="416" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q415" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R415" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="416" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O416" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P416" s="16">
         <v>41239</v>
       </c>
-    </row>
-    <row r="417" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q416" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R416" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="417" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O417" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P417" s="16">
         <v>41240</v>
       </c>
-    </row>
-    <row r="418" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q417" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R417" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="418" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O418" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P418" s="16">
         <v>41241</v>
       </c>
-    </row>
-    <row r="419" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q418" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R418" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="419" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O419" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P419" s="16">
         <v>41242</v>
       </c>
-    </row>
-    <row r="420" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q419" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R419" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="420" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O420" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P420" s="16">
         <v>41243</v>
       </c>
-    </row>
-    <row r="421" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q420" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="R420" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="421" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O421" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P421" s="16">
         <v>41244</v>
       </c>
-    </row>
-    <row r="422" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q421" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R421" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="422" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O422" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P422" s="16">
         <v>41245</v>
       </c>
-    </row>
-    <row r="423" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q422" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R422" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="423" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O423" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P423" s="16">
         <v>41246</v>
       </c>
-    </row>
-    <row r="424" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q423" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R423" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="424" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O424" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P424" s="16">
         <v>41247</v>
       </c>
-    </row>
-    <row r="425" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q424" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R424" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="425" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O425" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P425" s="16">
         <v>41248</v>
       </c>
-    </row>
-    <row r="426" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q425" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R425" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="426" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O426" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P426" s="16">
         <v>41249</v>
       </c>
-    </row>
-    <row r="427" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q426" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R426" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="427" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K427" s="130"/>
       <c r="O427" s="15" t="s">
         <v>2</v>
@@ -8730,109 +12180,221 @@
       <c r="P427" s="16">
         <v>41250</v>
       </c>
-    </row>
-    <row r="428" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q427" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R427" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="428" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O428" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P428" s="16">
         <v>41251</v>
       </c>
-    </row>
-    <row r="429" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q428" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R428" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="429" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O429" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P429" s="16">
         <v>41252</v>
       </c>
-    </row>
-    <row r="430" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q429" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R429" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="430" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O430" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P430" s="16">
         <v>41253</v>
       </c>
-    </row>
-    <row r="431" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q430" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R430" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="431" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O431" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P431" s="16">
         <v>41254</v>
       </c>
-    </row>
-    <row r="432" spans="11:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q431" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R431" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="432" spans="11:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O432" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P432" s="16">
         <v>41255</v>
       </c>
-    </row>
-    <row r="433" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q432" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R432" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="433" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O433" s="15" t="s">
         <v>8</v>
       </c>
       <c r="P433" s="16">
         <v>41256</v>
       </c>
-    </row>
-    <row r="434" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q433" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R433" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="434" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O434" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P434" s="16">
         <v>41257</v>
       </c>
-    </row>
-    <row r="435" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q434" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R434" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="435" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O435" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P435" s="16">
         <v>41258</v>
       </c>
-    </row>
-    <row r="436" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q435" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R435" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="436" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O436" s="15" t="s">
         <v>3</v>
       </c>
       <c r="P436" s="16">
         <v>41259</v>
       </c>
-    </row>
-    <row r="437" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q436" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R436" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="437" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O437" s="15" t="s">
         <v>4</v>
       </c>
       <c r="P437" s="16">
         <v>41260</v>
       </c>
-    </row>
-    <row r="438" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q437" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R437" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="438" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O438" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P438" s="16">
         <v>41261</v>
       </c>
-    </row>
-    <row r="439" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q438" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R438" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="439" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O439" s="15" t="s">
         <v>6</v>
       </c>
       <c r="P439" s="16">
         <v>41262</v>
       </c>
-    </row>
-    <row r="440" spans="15:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q439" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R439" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="440" spans="15:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O440" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P440" s="16">
         <v>41263</v>
+      </c>
+      <c r="Q440" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R440" t="str">
+        <f t="shared" si="13"/>
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
@@ -9653,7 +13215,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E9" sqref="E9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9662,16 +13224,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="142"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9685,7 +13247,7 @@
       <c r="A3" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="156" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="144"/>
@@ -9699,57 +13261,57 @@
       <c r="A4" s="115">
         <v>1</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="159"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="113">
         <v>2</v>
       </c>
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="148"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="159"/>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="114">
         <v>3</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="151"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="162"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="143" t="s">
         <v>119</v>
       </c>
       <c r="C8" s="144"/>
       <c r="D8" s="144"/>
-      <c r="E8" s="155" t="s">
+      <c r="E8" s="143" t="s">
         <v>120</v>
       </c>
       <c r="F8" s="144"/>
@@ -9757,49 +13319,49 @@
       <c r="H8" s="145"/>
     </row>
     <row r="9" spans="1:9" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="153"/>
-      <c r="B9" s="159" t="s">
+      <c r="A9" s="141"/>
+      <c r="B9" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="156">
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="146">
         <f xml:space="preserve"> (  LEN(B4)    -LEN(SUBSTITUTE(B4,B9,"")) )  /  (LEN(B9))</f>
         <v>3</v>
       </c>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="158"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="148"/>
     </row>
     <row r="10" spans="1:9" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="153"/>
-      <c r="B10" s="162" t="s">
+      <c r="A10" s="141"/>
+      <c r="B10" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="156">
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="146">
         <f t="shared" ref="E10:E11" si="0" xml:space="preserve"> (  LEN(B5)    -LEN(SUBSTITUTE(B5,B10,"")) )  /  (LEN(B10))</f>
         <v>2</v>
       </c>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="158"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="148"/>
     </row>
     <row r="11" spans="1:9" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="154"/>
-      <c r="B11" s="162" t="s">
+      <c r="A11" s="142"/>
+      <c r="B11" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="156">
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="146">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="158"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="148"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9809,6 +13371,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:H9"/>
@@ -9818,11 +13385,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9845,30 +13407,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="172" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="168"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="174"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="177"/>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="123"/>
@@ -9884,18 +13446,18 @@
       <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="178" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="173"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="179"/>
       <c r="K4" s="121"/>
       <c r="M4"/>
     </row>
@@ -9903,16 +13465,16 @@
       <c r="A5" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="143" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="144"/>
       <c r="D5" s="145"/>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="143" t="s">
         <v>138</v>
       </c>
       <c r="F5" s="145"/>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="143" t="s">
         <v>137</v>
       </c>
       <c r="H5" s="144"/>
@@ -9923,132 +13485,132 @@
       <c r="A6" s="120">
         <v>1</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="174" t="s">
+      <c r="C6" s="182"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="175"/>
-      <c r="G6" s="163" t="str" cm="1">
+      <c r="F6" s="181"/>
+      <c r="G6" s="169" t="str" cm="1">
         <f t="array" ref="G6" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E6, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B6,LEN(B6)-(SEARCH(",",B6)))&amp;  " " &amp;LEFT(B6,SEARCH(",",B6)-1) )</f>
         <v>Mrs. Bharti Gupta</v>
       </c>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="165"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="122">
         <v>2</v>
       </c>
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="176" t="s">
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="163" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="177"/>
-      <c r="G7" s="163" t="str" cm="1">
+      <c r="F7" s="165"/>
+      <c r="G7" s="169" t="str" cm="1">
         <f t="array" ref="G7" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E7, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B7,LEN(B7)-(SEARCH(",",B7)))&amp;  " " &amp;LEFT(B7,SEARCH(",",B7)-1) )</f>
         <v>Mr. Chandan Negi</v>
       </c>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="119">
         <v>3</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="176" t="s">
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="177"/>
-      <c r="G8" s="163" t="str" cm="1">
+      <c r="F8" s="165"/>
+      <c r="G8" s="169" t="str" cm="1">
         <f t="array" ref="G8" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E8, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B8,LEN(B8)-(SEARCH(",",B8)))&amp;  " " &amp;LEFT(B8,SEARCH(",",B8)-1) )</f>
         <v>Mrs. Neha Malhotra</v>
       </c>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="119">
         <v>4</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="179"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="176" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="177"/>
-      <c r="G9" s="163" t="str" cm="1">
+      <c r="F9" s="165"/>
+      <c r="G9" s="169" t="str" cm="1">
         <f t="array" ref="G9" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E9, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B9,LEN(B9)-(SEARCH(",",B9)))&amp;  " " &amp;LEFT(B9,SEARCH(",",B9)-1) )</f>
         <v>Mrs. Daljeet Kaur</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="171"/>
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="119">
         <v>5</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="176" t="s">
+      <c r="C10" s="164"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="163" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="163" t="str" cm="1">
+      <c r="F10" s="165"/>
+      <c r="G10" s="169" t="str" cm="1">
         <f t="array" ref="G10" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E10, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B10,LEN(B10)-(SEARCH(",",B10)))&amp;  " " &amp;LEFT(B10,SEARCH(",",B10)-1) )</f>
         <v>Mr. Virit Shukla</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="171"/>
       <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="119">
         <v>6</v>
       </c>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="182"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="180" t="s">
+      <c r="C11" s="168"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="181"/>
-      <c r="G11" s="163" t="str" cm="1">
+      <c r="F11" s="167"/>
+      <c r="G11" s="169" t="str" cm="1">
         <f t="array" ref="G11" xml:space="preserve"> PROPER(   _xlfn.SWITCH(E11, "F", "Mrs.",  "Mr." )&amp; " " &amp;RIGHT(B11,LEN(B11)-(SEARCH(",",B11)))&amp;  " " &amp;LEFT(B11,SEARCH(",",B11)-1) )</f>
         <v>Mr. Priyank Agarwal</v>
       </c>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="165"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
@@ -10057,13 +13619,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
@@ -10080,6 +13635,13 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10096,118 +13658,118 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="187" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="189" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="193" t="s">
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="185" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="194"/>
+      <c r="H4" s="186"/>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="127">
         <v>1</v>
       </c>
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="192" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="156" t="str">
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="146" t="str">
         <f>RIGHT(B5,LEN(B5)-(SEARCH("check",B5)+7))</f>
         <v>12345</v>
       </c>
-      <c r="H5" s="158"/>
+      <c r="H5" s="148"/>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="125">
         <v>2</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="156" t="str">
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="146" t="str">
         <f t="shared" ref="G6:G8" si="0">RIGHT(B6,LEN(B6)-(SEARCH("check",B6)+7))</f>
         <v>123456</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="148"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="125">
         <v>3</v>
       </c>
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="156" t="str">
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="146" t="str">
         <f t="shared" si="0"/>
         <v>000789</v>
       </c>
-      <c r="H7" s="158"/>
+      <c r="H7" s="148"/>
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="125">
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="156" t="str">
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="146" t="str">
         <f t="shared" si="0"/>
         <v>123456</v>
       </c>
-      <c r="H8" s="158"/>
+      <c r="H8" s="148"/>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10215,6 +13777,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="G4:H4"/>
@@ -10222,11 +13789,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
